--- a/Results/netflixtw.xlsx
+++ b/Results/netflixtw.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44925.30319039595</v>
+        <v>44925.30319039352</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44925.30319042889</v>
+        <v>44925.30319042824</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44925.30319043931</v>
+        <v>44925.30319043982</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44925.30319045111</v>
+        <v>44925.30319045139</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44925.30319046227</v>
+        <v>44925.30319046296</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44925.30319047379</v>
+        <v>44925.30319047454</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44925.30319048737</v>
+        <v>44925.30319048611</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44925.30319050012</v>
+        <v>44925.30319049769</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44925.30319051533</v>
+        <v>44925.30319052083</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -749,6 +749,259 @@
       </c>
       <c r="H10" t="n">
         <v>220197</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44925.30925176934</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmyG7LLPob9/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>44925.29256944444</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1255</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10522</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44925.30925178497</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmxyP5sOOEf/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>44925.16695601852</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8476</v>
+      </c>
+      <c r="G12" t="n">
+        <v>56</v>
+      </c>
+      <c r="H12" t="n">
+        <v>69395</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44925.30925179833</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmv55VQvdck/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>44924.43671296296</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1841</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>18510</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44925.30925180842</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmvNf2qPfpP/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>44924.1672337963</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6719</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24</v>
+      </c>
+      <c r="H14" t="n">
+        <v>71109</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44925.30925181758</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmtR3nzsEUm/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GraphSidecar</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>44923.41695601852</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5903</v>
+      </c>
+      <c r="G15" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44925.30925182856</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cms--OjJ9ql/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>44923.30244212963</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15888</v>
+      </c>
+      <c r="G16" t="n">
+        <v>54</v>
+      </c>
+      <c r="H16" t="n">
+        <v>131640</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44925.30925183854</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmsorV6NC1c/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>44923.16710648148</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8113</v>
+      </c>
+      <c r="G17" t="n">
+        <v>40</v>
+      </c>
+      <c r="H17" t="n">
+        <v>86737</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44925.30925184909</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmqtDJhOfDh/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>44922.41694444444</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14094</v>
+      </c>
+      <c r="G18" t="n">
+        <v>72</v>
+      </c>
+      <c r="H18" t="n">
+        <v>127482</v>
       </c>
     </row>
   </sheetData>

--- a/Results/netflixtw.xlsx
+++ b/Results/netflixtw.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44925.31271788711</v>
+        <v>44925.31271788194</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44925.31271790221</v>
+        <v>44925.31271790509</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44925.31271791174</v>
+        <v>44925.31271791667</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44925.31271792081</v>
+        <v>44925.31271791667</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44925.3127179318</v>
+        <v>44925.31271792824</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44925.31271794393</v>
+        <v>44925.31271793981</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44925.31271795448</v>
+        <v>44925.31271795139</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44925.31271796503</v>
+        <v>44925.31271796297</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -717,6 +717,259 @@
       </c>
       <c r="H9" t="n">
         <v>127506</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44925.34087196682</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmyG7LLPob9/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>44925.29256944444</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2328</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21514</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44925.3408719874</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmxyP5sOOEf/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>44925.16695601852</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9227</v>
+      </c>
+      <c r="G11" t="n">
+        <v>61</v>
+      </c>
+      <c r="H11" t="n">
+        <v>75855</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44925.34087200736</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmv55VQvdck/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>44924.43671296296</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1859</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>18747</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44925.34087202187</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmvNf2qPfpP/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>44924.1672337963</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6756</v>
+      </c>
+      <c r="G13" t="n">
+        <v>24</v>
+      </c>
+      <c r="H13" t="n">
+        <v>71529</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44925.34087203586</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmtR3nzsEUm/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>GraphSidecar</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>44923.41695601852</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5938</v>
+      </c>
+      <c r="G14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44925.34087204963</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cms--OjJ9ql/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>44923.30244212963</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15924</v>
+      </c>
+      <c r="G15" t="n">
+        <v>54</v>
+      </c>
+      <c r="H15" t="n">
+        <v>131933</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44925.34087206439</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmsorV6NC1c/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>44923.16710648148</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8128</v>
+      </c>
+      <c r="G16" t="n">
+        <v>40</v>
+      </c>
+      <c r="H16" t="n">
+        <v>86910</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44925.34087208006</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmqtDJhOfDh/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>44922.41694444444</v>
+      </c>
+      <c r="F17" t="n">
+        <v>14111</v>
+      </c>
+      <c r="G17" t="n">
+        <v>72</v>
+      </c>
+      <c r="H17" t="n">
+        <v>127686</v>
       </c>
     </row>
   </sheetData>

--- a/Results/netflixtw.xlsx
+++ b/Results/netflixtw.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44925.34087196682</v>
+        <v>44925.34087196759</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44925.3408719874</v>
+        <v>44925.34087199074</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44925.34087200736</v>
+        <v>44925.34087200231</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44925.34087202187</v>
+        <v>44925.34087202547</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44925.34087203586</v>
+        <v>44925.34087203704</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44925.34087204963</v>
+        <v>44925.34087204861</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44925.34087206439</v>
+        <v>44925.34087206019</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44925.34087208006</v>
+        <v>44925.34087208333</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -970,6 +970,259 @@
       </c>
       <c r="H17" t="n">
         <v>127686</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44925.38060903123</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmyG7LLPob9/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>44925.29256944444</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3231</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30988</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>44925.38060904716</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmxyP5sOOEf/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>44925.16695601852</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10142</v>
+      </c>
+      <c r="G19" t="n">
+        <v>63</v>
+      </c>
+      <c r="H19" t="n">
+        <v>83265</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44925.38060905823</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmv55VQvdck/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>44924.43671296296</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1882</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>19116</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44925.38060907052</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmvNf2qPfpP/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>44924.1672337963</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6802</v>
+      </c>
+      <c r="G21" t="n">
+        <v>24</v>
+      </c>
+      <c r="H21" t="n">
+        <v>72063</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44925.38060908014</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmtR3nzsEUm/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GraphSidecar</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>44923.41695601852</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5967</v>
+      </c>
+      <c r="G22" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44925.38060908944</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cms--OjJ9ql/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>44923.30244212963</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15971</v>
+      </c>
+      <c r="G23" t="n">
+        <v>55</v>
+      </c>
+      <c r="H23" t="n">
+        <v>132303</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>44925.3806091008</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmsorV6NC1c/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>44923.16710648148</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8144</v>
+      </c>
+      <c r="G24" t="n">
+        <v>40</v>
+      </c>
+      <c r="H24" t="n">
+        <v>87142</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>44925.38060911212</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmqtDJhOfDh/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>44922.41694444444</v>
+      </c>
+      <c r="F25" t="n">
+        <v>14148</v>
+      </c>
+      <c r="G25" t="n">
+        <v>72</v>
+      </c>
+      <c r="H25" t="n">
+        <v>127949</v>
       </c>
     </row>
   </sheetData>

--- a/Results/netflixtw.xlsx
+++ b/Results/netflixtw.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44925.38060903123</v>
+        <v>44925.38060902778</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44925.38060904716</v>
+        <v>44925.38060905092</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44925.38060905823</v>
+        <v>44925.3806090625</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44925.38060907052</v>
+        <v>44925.38060907408</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44925.38060908014</v>
+        <v>44925.38060908565</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44925.38060908944</v>
+        <v>44925.38060908565</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44925.3806091008</v>
+        <v>44925.38060909722</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44925.38060911212</v>
+        <v>44925.3806091088</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1223,6 +1223,259 @@
       </c>
       <c r="H25" t="n">
         <v>127949</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44925.42275746514</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmybcebg635/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>44925.41702546296</v>
+      </c>
+      <c r="F26" t="n">
+        <v>625</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>44925.42275748167</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmyG7LLPob9/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>44925.29256944444</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3880</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11</v>
+      </c>
+      <c r="H27" t="n">
+        <v>37664</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>44925.42275749434</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmxyP5sOOEf/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>44925.16695601852</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10989</v>
+      </c>
+      <c r="G28" t="n">
+        <v>71</v>
+      </c>
+      <c r="H28" t="n">
+        <v>89768</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>44925.42275750485</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmv55VQvdck/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>44924.43671296296</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1903</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>19449</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>44925.42275751662</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmvNf2qPfpP/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>44924.1672337963</v>
+      </c>
+      <c r="F30" t="n">
+        <v>6855</v>
+      </c>
+      <c r="G30" t="n">
+        <v>24</v>
+      </c>
+      <c r="H30" t="n">
+        <v>72601</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>44925.42275752743</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmtR3nzsEUm/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GraphSidecar</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>44923.41695601852</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6008</v>
+      </c>
+      <c r="G31" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>44925.42275753777</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cms--OjJ9ql/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>44923.30244212963</v>
+      </c>
+      <c r="F32" t="n">
+        <v>16010</v>
+      </c>
+      <c r="G32" t="n">
+        <v>55</v>
+      </c>
+      <c r="H32" t="n">
+        <v>132672</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>44925.42275754796</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmsorV6NC1c/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>44923.16710648148</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8167</v>
+      </c>
+      <c r="G33" t="n">
+        <v>40</v>
+      </c>
+      <c r="H33" t="n">
+        <v>87381</v>
       </c>
     </row>
   </sheetData>

--- a/Results/netflixtw.xlsx
+++ b/Results/netflixtw.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44925.42275746514</v>
+        <v>44925.42275746528</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44925.42275748167</v>
+        <v>44925.42275747685</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44925.42275749434</v>
+        <v>44925.4227575</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44925.42275750485</v>
+        <v>44925.4227575</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44925.42275751662</v>
+        <v>44925.42275751157</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44925.42275752743</v>
+        <v>44925.42275752315</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44925.42275753777</v>
+        <v>44925.42275753472</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44925.42275754796</v>
+        <v>44925.42275754629</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1476,6 +1476,259 @@
       </c>
       <c r="H33" t="n">
         <v>87381</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>44925.4633211142</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmybcebg635/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>44925.41702546296</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3688</v>
+      </c>
+      <c r="G34" t="n">
+        <v>22</v>
+      </c>
+      <c r="H34" t="n">
+        <v>27686</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>44925.46332113675</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmyG7LLPob9/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>44925.29256944444</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4315</v>
+      </c>
+      <c r="G35" t="n">
+        <v>11</v>
+      </c>
+      <c r="H35" t="n">
+        <v>41934</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>44925.46332116012</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmxyP5sOOEf/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>44925.16695601852</v>
+      </c>
+      <c r="F36" t="n">
+        <v>11527</v>
+      </c>
+      <c r="G36" t="n">
+        <v>73</v>
+      </c>
+      <c r="H36" t="n">
+        <v>94413</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>44925.4633211767</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmv55VQvdck/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>44924.43671296296</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1921</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>19674</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>44925.46332119247</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmvNf2qPfpP/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>44924.1672337963</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6893</v>
+      </c>
+      <c r="G38" t="n">
+        <v>24</v>
+      </c>
+      <c r="H38" t="n">
+        <v>73026</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>44925.46332120687</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmtR3nzsEUm/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GraphSidecar</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>44923.41695601852</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6043</v>
+      </c>
+      <c r="G39" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>44925.46332121955</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cms--OjJ9ql/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>44923.30244212963</v>
+      </c>
+      <c r="F40" t="n">
+        <v>16050</v>
+      </c>
+      <c r="G40" t="n">
+        <v>55</v>
+      </c>
+      <c r="H40" t="n">
+        <v>132997</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>44925.46332123761</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmsorV6NC1c/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>44923.16710648148</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8186</v>
+      </c>
+      <c r="G41" t="n">
+        <v>40</v>
+      </c>
+      <c r="H41" t="n">
+        <v>87591</v>
       </c>
     </row>
   </sheetData>

--- a/Results/netflixtw.xlsx
+++ b/Results/netflixtw.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44925.4633211142</v>
+        <v>44925.46332111111</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44925.46332113675</v>
+        <v>44925.46332113426</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44925.46332116012</v>
+        <v>44925.46332115741</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44925.4633211767</v>
+        <v>44925.46332118056</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44925.46332119247</v>
+        <v>44925.46332119213</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44925.46332120687</v>
+        <v>44925.4633212037</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44925.46332121955</v>
+        <v>44925.46332121528</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44925.46332123761</v>
+        <v>44925.46332123843</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1729,6 +1729,259 @@
       </c>
       <c r="H41" t="n">
         <v>87591</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>44925.50994535784</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmybcebg635/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>44925.41702546296</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6013</v>
+      </c>
+      <c r="G42" t="n">
+        <v>30</v>
+      </c>
+      <c r="H42" t="n">
+        <v>46855</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>44925.50994537439</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmyG7LLPob9/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>44925.29256944444</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4669</v>
+      </c>
+      <c r="G43" t="n">
+        <v>11</v>
+      </c>
+      <c r="H43" t="n">
+        <v>46026</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>44925.50994539052</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmxyP5sOOEf/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>44925.16695601852</v>
+      </c>
+      <c r="F44" t="n">
+        <v>12009</v>
+      </c>
+      <c r="G44" t="n">
+        <v>74</v>
+      </c>
+      <c r="H44" t="n">
+        <v>98734</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>44925.50994540736</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmv55VQvdck/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>44924.43671296296</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1941</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>19929</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>44925.50994542173</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmvNf2qPfpP/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>44924.1672337963</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6933</v>
+      </c>
+      <c r="G46" t="n">
+        <v>24</v>
+      </c>
+      <c r="H46" t="n">
+        <v>73497</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>44925.50994543841</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmtR3nzsEUm/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GraphSidecar</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>44923.41695601852</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6082</v>
+      </c>
+      <c r="G47" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>44925.50994545473</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cms--OjJ9ql/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>44923.30244212963</v>
+      </c>
+      <c r="F48" t="n">
+        <v>16084</v>
+      </c>
+      <c r="G48" t="n">
+        <v>55</v>
+      </c>
+      <c r="H48" t="n">
+        <v>133377</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>44925.50994546725</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmsorV6NC1c/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>44923.16710648148</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8211</v>
+      </c>
+      <c r="G49" t="n">
+        <v>40</v>
+      </c>
+      <c r="H49" t="n">
+        <v>87844</v>
       </c>
     </row>
   </sheetData>

--- a/Results/netflixtw.xlsx
+++ b/Results/netflixtw.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44925.50994535784</v>
+        <v>44925.5099453588</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44925.50994537439</v>
+        <v>44925.50994537037</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44925.50994539052</v>
+        <v>44925.50994539352</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44925.50994540736</v>
+        <v>44925.50994540509</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44925.50994542173</v>
+        <v>44925.50994541667</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44925.50994543841</v>
+        <v>44925.50994543982</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44925.50994545473</v>
+        <v>44925.50994545139</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44925.50994546725</v>
+        <v>44925.50994546296</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1982,6 +1982,259 @@
       </c>
       <c r="H49" t="n">
         <v>87844</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>44925.5505321028</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmybcebg635/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>44925.41702546296</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7255</v>
+      </c>
+      <c r="G50" t="n">
+        <v>31</v>
+      </c>
+      <c r="H50" t="n">
+        <v>58540</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>44925.55053211893</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmyG7LLPob9/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>44925.29256944444</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4895</v>
+      </c>
+      <c r="G51" t="n">
+        <v>11</v>
+      </c>
+      <c r="H51" t="n">
+        <v>48755</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>44925.55053212892</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmxyP5sOOEf/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>44925.16695601852</v>
+      </c>
+      <c r="F52" t="n">
+        <v>12385</v>
+      </c>
+      <c r="G52" t="n">
+        <v>76</v>
+      </c>
+      <c r="H52" t="n">
+        <v>101858</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>44925.55053214229</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmv55VQvdck/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>44924.43671296296</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1958</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>20135</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>44925.55053215298</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmvNf2qPfpP/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>44924.1672337963</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6980</v>
+      </c>
+      <c r="G54" t="n">
+        <v>24</v>
+      </c>
+      <c r="H54" t="n">
+        <v>73899</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>44925.55053216343</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmtR3nzsEUm/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GraphSidecar</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>44923.41695601852</v>
+      </c>
+      <c r="F55" t="n">
+        <v>6121</v>
+      </c>
+      <c r="G55" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>44925.5505321733</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cms--OjJ9ql/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>44923.30244212963</v>
+      </c>
+      <c r="F56" t="n">
+        <v>16126</v>
+      </c>
+      <c r="G56" t="n">
+        <v>55</v>
+      </c>
+      <c r="H56" t="n">
+        <v>133757</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>44925.5505321829</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmsorV6NC1c/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>44923.16710648148</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8233</v>
+      </c>
+      <c r="G57" t="n">
+        <v>40</v>
+      </c>
+      <c r="H57" t="n">
+        <v>88051</v>
       </c>
     </row>
   </sheetData>

--- a/Results/netflixtw.xlsx
+++ b/Results/netflixtw.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44925.5505321028</v>
+        <v>44925.55053210648</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44925.55053211893</v>
+        <v>44925.55053211805</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44925.55053212892</v>
+        <v>44925.55053212963</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44925.55053214229</v>
+        <v>44925.55053214121</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44925.55053215298</v>
+        <v>44925.55053215277</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44925.55053216343</v>
+        <v>44925.55053216435</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44925.5505321733</v>
+        <v>44925.55053217593</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44925.5505321829</v>
+        <v>44925.5505321875</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2235,6 +2235,259 @@
       </c>
       <c r="H57" t="n">
         <v>88051</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>44925.58843902397</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmybcebg635/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>44925.41702546296</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8218</v>
+      </c>
+      <c r="G58" t="n">
+        <v>35</v>
+      </c>
+      <c r="H58" t="n">
+        <v>68166</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>44925.58843904212</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmyG7LLPob9/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>44925.29256944444</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5092</v>
+      </c>
+      <c r="G59" t="n">
+        <v>12</v>
+      </c>
+      <c r="H59" t="n">
+        <v>51070</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>44925.58843905876</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmxyP5sOOEf/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>44925.16695601852</v>
+      </c>
+      <c r="F60" t="n">
+        <v>12718</v>
+      </c>
+      <c r="G60" t="n">
+        <v>78</v>
+      </c>
+      <c r="H60" t="n">
+        <v>104532</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>44925.58843907343</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmv55VQvdck/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>44924.43671296296</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1981</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>20345</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>44925.58843908756</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmvNf2qPfpP/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>44924.1672337963</v>
+      </c>
+      <c r="F62" t="n">
+        <v>7012</v>
+      </c>
+      <c r="G62" t="n">
+        <v>24</v>
+      </c>
+      <c r="H62" t="n">
+        <v>74223</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>44925.58843910231</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmtR3nzsEUm/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GraphSidecar</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>44923.41695601852</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6155</v>
+      </c>
+      <c r="G63" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>44925.58843911729</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cms--OjJ9ql/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>44923.30244212963</v>
+      </c>
+      <c r="F64" t="n">
+        <v>16171</v>
+      </c>
+      <c r="G64" t="n">
+        <v>56</v>
+      </c>
+      <c r="H64" t="n">
+        <v>134167</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>44925.58843913411</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmsorV6NC1c/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>44923.16710648148</v>
+      </c>
+      <c r="F65" t="n">
+        <v>8259</v>
+      </c>
+      <c r="G65" t="n">
+        <v>41</v>
+      </c>
+      <c r="H65" t="n">
+        <v>88292</v>
       </c>
     </row>
   </sheetData>

--- a/Results/netflixtw.xlsx
+++ b/Results/netflixtw.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44925.58843902397</v>
+        <v>44925.58843902778</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44925.58843904212</v>
+        <v>44925.58843903935</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44925.58843905876</v>
+        <v>44925.5884390625</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44925.58843907343</v>
+        <v>44925.58843907408</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44925.58843908756</v>
+        <v>44925.58843908565</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44925.58843910231</v>
+        <v>44925.58843909722</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44925.58843911729</v>
+        <v>44925.58843912037</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44925.58843913411</v>
+        <v>44925.58843913194</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2488,6 +2488,259 @@
       </c>
       <c r="H65" t="n">
         <v>88292</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>44925.63062884402</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmybcebg635/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>44925.41702546296</v>
+      </c>
+      <c r="F66" t="n">
+        <v>9207</v>
+      </c>
+      <c r="G66" t="n">
+        <v>41</v>
+      </c>
+      <c r="H66" t="n">
+        <v>78321</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>44925.63062887337</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmyG7LLPob9/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>44925.29256944444</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5316</v>
+      </c>
+      <c r="G67" t="n">
+        <v>13</v>
+      </c>
+      <c r="H67" t="n">
+        <v>53843</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>44925.63062890135</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmxyP5sOOEf/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>44925.16695601852</v>
+      </c>
+      <c r="F68" t="n">
+        <v>13048</v>
+      </c>
+      <c r="G68" t="n">
+        <v>80</v>
+      </c>
+      <c r="H68" t="n">
+        <v>107431</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>44925.63062896224</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmv55VQvdck/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>44924.43671296296</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1997</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>20575</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>44925.63062898527</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmvNf2qPfpP/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>44924.1672337963</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7070</v>
+      </c>
+      <c r="G70" t="n">
+        <v>24</v>
+      </c>
+      <c r="H70" t="n">
+        <v>74635</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>44925.63062902386</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmtR3nzsEUm/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GraphSidecar</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>44923.41695601852</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6196</v>
+      </c>
+      <c r="G71" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>44925.63062903938</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cms--OjJ9ql/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>44923.30244212963</v>
+      </c>
+      <c r="F72" t="n">
+        <v>16232</v>
+      </c>
+      <c r="G72" t="n">
+        <v>56</v>
+      </c>
+      <c r="H72" t="n">
+        <v>134662</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>44925.63062905682</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmsorV6NC1c/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>44923.16710648148</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8279</v>
+      </c>
+      <c r="G73" t="n">
+        <v>41</v>
+      </c>
+      <c r="H73" t="n">
+        <v>88601</v>
       </c>
     </row>
   </sheetData>

--- a/Results/netflixtw.xlsx
+++ b/Results/netflixtw.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44925.63062884402</v>
+        <v>44925.63062884259</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44925.63062887337</v>
+        <v>44925.63062887731</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44925.63062890135</v>
+        <v>44925.63062890046</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44925.63062896224</v>
+        <v>44925.63062895833</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2625,7 +2625,7 @@
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44925.63062898527</v>
+        <v>44925.63062898148</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44925.63062902386</v>
+        <v>44925.63062902778</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44925.63062903938</v>
+        <v>44925.63062903935</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44925.63062905682</v>
+        <v>44925.6306290625</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2741,6 +2741,259 @@
       </c>
       <c r="H73" t="n">
         <v>88601</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>44925.67394995726</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmybcebg635/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>44925.41702546296</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10111</v>
+      </c>
+      <c r="G74" t="n">
+        <v>46</v>
+      </c>
+      <c r="H74" t="n">
+        <v>88045</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>44925.67394997667</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmyG7LLPob9/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>44925.29256944444</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5542</v>
+      </c>
+      <c r="G75" t="n">
+        <v>13</v>
+      </c>
+      <c r="H75" t="n">
+        <v>56600</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>44925.67394999543</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmxyP5sOOEf/</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>44925.16695601852</v>
+      </c>
+      <c r="F76" t="n">
+        <v>13363</v>
+      </c>
+      <c r="G76" t="n">
+        <v>80</v>
+      </c>
+      <c r="H76" t="n">
+        <v>110321</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>44925.67395001185</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmv55VQvdck/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>44924.43671296296</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>20827</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>44925.67395002699</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmvNf2qPfpP/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>44924.1672337963</v>
+      </c>
+      <c r="F78" t="n">
+        <v>7127</v>
+      </c>
+      <c r="G78" t="n">
+        <v>24</v>
+      </c>
+      <c r="H78" t="n">
+        <v>75024</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>44925.67395004129</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmtR3nzsEUm/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>GraphSidecar</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>44923.41695601852</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6246</v>
+      </c>
+      <c r="G79" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>44925.67395005846</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cms--OjJ9ql/</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>44923.30244212963</v>
+      </c>
+      <c r="F80" t="n">
+        <v>16306</v>
+      </c>
+      <c r="G80" t="n">
+        <v>56</v>
+      </c>
+      <c r="H80" t="n">
+        <v>135277</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>44925.67395007508</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmsorV6NC1c/</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>44923.16710648148</v>
+      </c>
+      <c r="F81" t="n">
+        <v>8311</v>
+      </c>
+      <c r="G81" t="n">
+        <v>41</v>
+      </c>
+      <c r="H81" t="n">
+        <v>88995</v>
       </c>
     </row>
   </sheetData>

--- a/Results/netflixtw.xlsx
+++ b/Results/netflixtw.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44925.67394995726</v>
+        <v>44925.67394995371</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44925.67394997667</v>
+        <v>44925.67394997685</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44925.67394999543</v>
+        <v>44925.67395</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44925.67395001185</v>
+        <v>44925.67395001157</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44925.67395002699</v>
+        <v>44925.67395002315</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44925.67395004129</v>
+        <v>44925.67395004629</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44925.67395005846</v>
+        <v>44925.67395005787</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44925.67395007508</v>
+        <v>44925.67395006945</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2994,6 +2994,259 @@
       </c>
       <c r="H81" t="n">
         <v>88995</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>44925.71342440585</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmybcebg635/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>44925.41702546296</v>
+      </c>
+      <c r="F82" t="n">
+        <v>10761</v>
+      </c>
+      <c r="G82" t="n">
+        <v>50</v>
+      </c>
+      <c r="H82" t="n">
+        <v>95037</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>44925.71342442197</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmyG7LLPob9/</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>44925.29256944444</v>
+      </c>
+      <c r="F83" t="n">
+        <v>5723</v>
+      </c>
+      <c r="G83" t="n">
+        <v>14</v>
+      </c>
+      <c r="H83" t="n">
+        <v>58770</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>44925.71342443957</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmxyP5sOOEf/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>44925.16695601852</v>
+      </c>
+      <c r="F84" t="n">
+        <v>13609</v>
+      </c>
+      <c r="G84" t="n">
+        <v>81</v>
+      </c>
+      <c r="H84" t="n">
+        <v>112565</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>44925.71342445179</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cmv55VQvdck/</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>44924.43671296296</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2045</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2</v>
+      </c>
+      <c r="H85" t="n">
+        <v>21074</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>44925.71342446291</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmvNf2qPfpP/</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>44924.1672337963</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7164</v>
+      </c>
+      <c r="G86" t="n">
+        <v>24</v>
+      </c>
+      <c r="H86" t="n">
+        <v>75370</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>44925.71342447423</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmtR3nzsEUm/</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GraphSidecar</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>44923.41695601852</v>
+      </c>
+      <c r="F87" t="n">
+        <v>6280</v>
+      </c>
+      <c r="G87" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>44925.71342448551</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cms--OjJ9ql/</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>44923.30244212963</v>
+      </c>
+      <c r="F88" t="n">
+        <v>16366</v>
+      </c>
+      <c r="G88" t="n">
+        <v>56</v>
+      </c>
+      <c r="H88" t="n">
+        <v>135709</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>netflixtw</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>44925.71342449649</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CmsorV6NC1c/</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>GraphVideo</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>44923.16710648148</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8340</v>
+      </c>
+      <c r="G89" t="n">
+        <v>41</v>
+      </c>
+      <c r="H89" t="n">
+        <v>89296</v>
       </c>
     </row>
   </sheetData>
